--- a/results/cifar100_training/results_naive_fine-tuning_cifar100.xlsx
+++ b/results/cifar100_training/results_naive_fine-tuning_cifar100.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
-    <sheet name="naive_after_task2" sheetId="2" r:id="rId2"/>
+    <sheet name="fine-tuning_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="fine-tuning_after_task2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.47945854140491</v>
+        <v>3.513985910246857</v>
       </c>
       <c r="D3">
-        <v>3.146267096201579</v>
+        <v>3.39021451656635</v>
       </c>
       <c r="E3">
-        <v>9.75</v>
+        <v>7.85</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01565530323982239</v>
+        <v>0.01670538787841797</v>
       </c>
       <c r="J3">
-        <v>19.5</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.885741208626972</v>
+        <v>2.884101874005478</v>
       </c>
       <c r="D4">
-        <v>2.913983027140299</v>
+        <v>3.041288871031541</v>
       </c>
       <c r="E4">
-        <v>12.45</v>
+        <v>11.88</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.04752827186584473</v>
+        <v>0.04911865615844727</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.551464765052485</v>
+        <v>2.565237060057378</v>
       </c>
       <c r="D5">
-        <v>2.834744135538737</v>
+        <v>2.548432533557599</v>
       </c>
       <c r="E5">
-        <v>14.04</v>
+        <v>16.75</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01441647148132324</v>
+        <v>0.01480935220718384</v>
       </c>
       <c r="J5">
-        <v>24.9</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.269724496980993</v>
+        <v>2.271709710095836</v>
       </c>
       <c r="D6">
-        <v>2.294584671656291</v>
+        <v>2.685313114753136</v>
       </c>
       <c r="E6">
-        <v>17.05</v>
+        <v>14.86</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05185110206604004</v>
+        <v>0.05646828651428223</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.034579454398737</v>
+        <v>2.05863433496087</v>
       </c>
       <c r="D7">
-        <v>2.256781498591105</v>
+        <v>2.248642738048847</v>
       </c>
       <c r="E7">
-        <v>18.66</v>
+        <v>18.67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01407539219856262</v>
+        <v>0.01244244966506958</v>
       </c>
       <c r="J7">
-        <v>28.08</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.850076515500138</v>
+        <v>1.869781945658996</v>
       </c>
       <c r="D8">
-        <v>2.251797278722127</v>
+        <v>2.299432369378897</v>
       </c>
       <c r="E8">
-        <v>19.35</v>
+        <v>18.69</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06132530670166016</v>
+        <v>0.05538965911865235</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.701298966640379</v>
+        <v>1.722202197640343</v>
       </c>
       <c r="D9">
-        <v>2.214001019795736</v>
+        <v>2.181706336828379</v>
       </c>
       <c r="E9">
-        <v>19.44</v>
+        <v>19.97</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0117394275188446</v>
+        <v>0.01326115460395813</v>
       </c>
       <c r="J9">
-        <v>34.1</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.571466499227818</v>
+        <v>1.585606396725747</v>
       </c>
       <c r="D10">
-        <v>1.941363294919332</v>
+        <v>2.417565895960881</v>
       </c>
       <c r="E10">
-        <v>23.17</v>
+        <v>18.71</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.05773888339996338</v>
+        <v>0.06384096946716308</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.45033848285675</v>
+        <v>1.472604391849146</v>
       </c>
       <c r="D11">
-        <v>2.185807704925537</v>
+        <v>2.127572298049927</v>
       </c>
       <c r="E11">
-        <v>20.83</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01130327591896057</v>
+        <v>0.01123842692375183</v>
       </c>
       <c r="J11">
-        <v>37.32</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.34427090679727</v>
+        <v>1.36242841513811</v>
       </c>
       <c r="D12">
-        <v>2.092498064041138</v>
+        <v>1.918966770172119</v>
       </c>
       <c r="E12">
-        <v>22.04</v>
+        <v>23.99</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.062901713180542</v>
+        <v>0.06085387935638428</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.249768076873407</v>
+        <v>1.258999239026973</v>
       </c>
       <c r="D13">
-        <v>1.987972537676493</v>
+        <v>1.896090168219346</v>
       </c>
       <c r="E13">
-        <v>22.61</v>
+        <v>23.87</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01161217861175537</v>
+        <v>0.01145801033973694</v>
       </c>
       <c r="J13">
-        <v>38.7</v>
+        <v>37.38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.159601750897198</v>
+        <v>1.146471913409444</v>
       </c>
       <c r="D14">
-        <v>1.851506551106771</v>
+        <v>1.99501199905689</v>
       </c>
       <c r="E14">
-        <v>23.96</v>
+        <v>23.43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.07015480785369874</v>
+        <v>0.06195356826782226</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.068636958676625</v>
+        <v>1.081574467431127</v>
       </c>
       <c r="D15">
-        <v>2.035317341486613</v>
+        <v>2.059357157120338</v>
       </c>
       <c r="E15">
-        <v>22.9</v>
+        <v>22.63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01115917572975159</v>
+        <v>0.01074347126483917</v>
       </c>
       <c r="J15">
-        <v>38.88</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9737901842691065</v>
+        <v>0.9850699347732341</v>
       </c>
       <c r="D16">
-        <v>1.972714106241862</v>
+        <v>2.208527124845065</v>
       </c>
       <c r="E16">
-        <v>23.06</v>
+        <v>22.59</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06583844795227051</v>
+        <v>0.06567200756072998</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.904474100930904</v>
+        <v>0.8987775845865232</v>
       </c>
       <c r="D17">
-        <v>2.184198379516602</v>
+        <v>2.273379747684185</v>
       </c>
       <c r="E17">
-        <v>21.65</v>
+        <v>22.06</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.009579204750061035</v>
+        <v>0.01185599126815796</v>
       </c>
       <c r="J17">
-        <v>46.34</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8203871414913395</v>
+        <v>0.8215251459484607</v>
       </c>
       <c r="D18">
-        <v>2.129909753799438</v>
+        <v>2.540023913750282</v>
       </c>
       <c r="E18">
-        <v>22.71</v>
+        <v>21.17</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06723083534240723</v>
+        <v>0.06814505271911621</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7545331314327272</v>
+        <v>0.9718225371521131</v>
       </c>
       <c r="D19">
-        <v>2.07574987411499</v>
+        <v>1.640222466908968</v>
       </c>
       <c r="E19">
-        <v>23.58</v>
+        <v>27.11</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.010907422041893</v>
+        <v>0.01054209599494934</v>
       </c>
       <c r="J19">
-        <v>41.66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8765880654497844</v>
+        <v>0.8774303519620305</v>
       </c>
       <c r="D20">
-        <v>1.520073612531026</v>
+        <v>1.661137360792894</v>
       </c>
       <c r="E20">
-        <v>28.08</v>
+        <v>27.05</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07336680278778077</v>
+        <v>0.06975038967132569</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7845391679585465</v>
+        <v>0.8270944852744584</v>
       </c>
       <c r="D21">
-        <v>1.546741843223572</v>
+        <v>1.699400085669297</v>
       </c>
       <c r="E21">
-        <v>27.81</v>
+        <v>26.77</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01032324137687683</v>
+        <v>0.009322006702423096</v>
       </c>
       <c r="J21">
-        <v>44.08</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7402502337122351</v>
+        <v>0.7825499614783092</v>
       </c>
       <c r="D22">
-        <v>1.495389660199483</v>
+        <v>1.710264407671415</v>
       </c>
       <c r="E22">
-        <v>27.75</v>
+        <v>26.89</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.069075758934021</v>
+        <v>0.06999115009307862</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6981953523023342</v>
+        <v>0.7453911863597094</v>
       </c>
       <c r="D23">
-        <v>1.590174118677775</v>
+        <v>1.709114890832167</v>
       </c>
       <c r="E23">
-        <v>27.45</v>
+        <v>26.42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01016889126300812</v>
+        <v>0.009444858860969543</v>
       </c>
       <c r="J23">
-        <v>45.22</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6607871074986652</v>
+        <v>0.6999072532738204</v>
       </c>
       <c r="D24">
-        <v>1.601702531178792</v>
+        <v>1.752803032214825</v>
       </c>
       <c r="E24">
-        <v>27.76</v>
+        <v>26.26</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07496949272155762</v>
+        <v>0.07153300018310547</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6224545196789067</v>
+        <v>0.8586905498420243</v>
       </c>
       <c r="D25">
-        <v>1.594363252321879</v>
+        <v>1.614858113802396</v>
       </c>
       <c r="E25">
-        <v>27.64</v>
+        <v>27.7</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.009404522919654846</v>
+        <v>0.00980853168964386</v>
       </c>
       <c r="J25">
-        <v>47.92</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.586891896356412</v>
+        <v>0.8431709013154022</v>
       </c>
       <c r="D26">
-        <v>1.638731042544047</v>
+        <v>1.626118770012489</v>
       </c>
       <c r="E26">
-        <v>27.18</v>
+        <v>27.53</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07326268692016602</v>
+        <v>0.07156457214355469</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.5530570762428811</v>
+        <v>0.8271651674160915</v>
       </c>
       <c r="D27">
-        <v>1.655631860097249</v>
+        <v>1.617316915438725</v>
       </c>
       <c r="E27">
-        <v>27.16</v>
+        <v>27.7</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01041263434886932</v>
+        <v>0.01016799652576447</v>
       </c>
       <c r="J27">
-        <v>45.8</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6687533942664542</v>
+        <v>0.8142139700661718</v>
       </c>
       <c r="D28">
-        <v>1.497257073720296</v>
+        <v>1.61142189686115</v>
       </c>
       <c r="E28">
-        <v>28.12</v>
+        <v>27.57</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07849016056060791</v>
+        <v>0.06939017353057861</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.6542103186370881</v>
+        <v>0.8023366221284445</v>
       </c>
       <c r="D29">
-        <v>1.502352794011434</v>
+        <v>1.629092088112464</v>
       </c>
       <c r="E29">
-        <v>28.07</v>
+        <v>27.57</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01064483547210693</v>
+        <v>0.01065518817901611</v>
       </c>
       <c r="J29">
-        <v>46.12</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.6430589944366517</v>
+        <v>0.7886994407240269</v>
       </c>
       <c r="D30">
-        <v>1.52642039457957</v>
+        <v>1.623595045163081</v>
       </c>
       <c r="E30">
-        <v>28.13</v>
+        <v>27.54</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07523943538665771</v>
+        <v>0.07657509956359863</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.6368900086821579</v>
+        <v>0.7792327715232309</v>
       </c>
       <c r="D31">
-        <v>1.5661647717158</v>
+        <v>1.656087829516484</v>
       </c>
       <c r="E31">
-        <v>28.06</v>
+        <v>27.53</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01102265424728394</v>
+        <v>0.01111517095565796</v>
       </c>
       <c r="J31">
-        <v>43.3</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.6260700579581222</v>
+        <v>0.76614074211205</v>
       </c>
       <c r="D32">
-        <v>1.544344266255697</v>
+        <v>1.645471444496742</v>
       </c>
       <c r="E32">
-        <v>27.95</v>
+        <v>27.49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.07484838199615479</v>
+        <v>0.07327091217041015</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.6678545479852009</v>
+        <v>0.7581085509958521</v>
       </c>
       <c r="D33">
-        <v>1.523313363393148</v>
+        <v>1.651492458123427</v>
       </c>
       <c r="E33">
-        <v>28.07</v>
+        <v>27.39</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01090936884880066</v>
+        <v>0.01261443014144898</v>
       </c>
       <c r="J33">
-        <v>45.42</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.6607754506715914</v>
+        <v>0.7955557223969856</v>
       </c>
       <c r="D34">
-        <v>1.448052565256755</v>
+        <v>1.614493874403147</v>
       </c>
       <c r="E34">
-        <v>28.11</v>
+        <v>27.53</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.07768379554748535</v>
+        <v>0.08337819786071778</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.6547524720672669</v>
+        <v>0.7946100503997465</v>
       </c>
       <c r="D35">
-        <v>1.467283248901367</v>
+        <v>1.626250798885639</v>
       </c>
       <c r="E35">
-        <v>28.1</v>
+        <v>27.55</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01111790010929108</v>
+        <v>0.007999127769470215</v>
       </c>
       <c r="J35">
-        <v>47.16</v>
+        <v>54.22</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.6492629017287154</v>
+        <v>0.7905197787073861</v>
       </c>
       <c r="D36">
-        <v>1.531436920166016</v>
+        <v>1.638184602443989</v>
       </c>
       <c r="E36">
-        <v>28.08</v>
+        <v>27.58</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.08182600898742676</v>
+        <v>0.06888819046020508</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.6481570732302782</v>
+        <v>0.7877643393204276</v>
       </c>
       <c r="D37">
-        <v>1.505122184753418</v>
+        <v>1.621490414326008</v>
       </c>
       <c r="E37">
-        <v>28.11</v>
+        <v>27.62</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.007629437947273255</v>
+        <v>0.008073619031906128</v>
       </c>
       <c r="J37">
-        <v>56.16</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.6462148578186345</v>
+        <v>0.7863521438784304</v>
       </c>
       <c r="D38">
-        <v>1.50856335957845</v>
+        <v>1.62392757489131</v>
       </c>
       <c r="E38">
-        <v>27.99</v>
+        <v>27.5</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.07066532344818115</v>
+        <v>0.06946716041564942</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.6448384877142868</v>
+        <v>0.800489470494532</v>
       </c>
       <c r="D39">
-        <v>1.562971115112305</v>
+        <v>1.628995427718529</v>
       </c>
       <c r="E39">
-        <v>28.13</v>
+        <v>27.67</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.007706867718696594</v>
+        <v>0.008200615382194519</v>
       </c>
       <c r="J39">
-        <v>55.62</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.6550423863942061</v>
+        <v>0.7951853059034432</v>
       </c>
       <c r="D40">
-        <v>1.547024647394816</v>
+        <v>1.64233384682582</v>
       </c>
       <c r="E40">
-        <v>28.03</v>
+        <v>27.63</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.07119331836700439</v>
+        <v>0.07028026103973389</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.6544971950655061</v>
+        <v>0.796053585225502</v>
       </c>
       <c r="D41">
-        <v>1.506566921869914</v>
+        <v>1.62772575708536</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>27.55</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.007788079333305359</v>
+        <v>0.0083122718334198</v>
       </c>
       <c r="J41">
-        <v>55.5</v>
+        <v>53.78</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.6532039225586062</v>
+        <v>0.7907031674300675</v>
       </c>
       <c r="D42">
-        <v>1.50442357858022</v>
+        <v>1.639983764061561</v>
       </c>
       <c r="E42">
-        <v>28.05</v>
+        <v>27.61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.07154066143035889</v>
+        <v>0.07186147060394286</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.6530254958121757</v>
+        <v>0.7922116322854978</v>
       </c>
       <c r="D43">
-        <v>1.522474050521851</v>
+        <v>1.615788120489854</v>
       </c>
       <c r="E43">
-        <v>27.93</v>
+        <v>27.56</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,28 +1639,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.007939168930053711</v>
+        <v>0.008349593782424928</v>
       </c>
       <c r="J43">
-        <v>54.9</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.6508533688095527</v>
-      </c>
-      <c r="D44">
-        <v>1.491867264111837</v>
-      </c>
-      <c r="E44">
-        <v>28.09</v>
-      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -1668,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.07269610691070556</v>
+        <v>0.07124273719787598</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,10 +1667,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008005503869056702</v>
+        <v>0.00851799819469452</v>
       </c>
       <c r="J45">
-        <v>55.52</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1696,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.0733913740158081</v>
+        <v>0.07160936794281006</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1710,10 +1695,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008049620485305786</v>
+        <v>0.007873316431045533</v>
       </c>
       <c r="J47">
-        <v>55.28</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1724,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.07201481895446778</v>
+        <v>0.06960743598937988</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1738,10 +1723,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.008297610187530518</v>
+        <v>0.007883818912506103</v>
       </c>
       <c r="J49">
-        <v>54.36</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1752,7 +1737,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.07431179332733154</v>
+        <v>0.0697024356842041</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1766,10 +1751,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.00839707498550415</v>
+        <v>0.007888763260841369</v>
       </c>
       <c r="J51">
-        <v>54.32</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1780,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.07511721458435058</v>
+        <v>0.06936722106933593</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1794,10 +1779,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.007726789188385009</v>
+        <v>0.007904735326766967</v>
       </c>
       <c r="J53">
-        <v>56.24</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1808,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.0724987205505371</v>
+        <v>0.07005388069152832</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1822,10 +1807,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.00772444474697113</v>
+        <v>0.007921804881095887</v>
       </c>
       <c r="J55">
-        <v>56.14</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1836,7 +1821,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.07210960578918457</v>
+        <v>0.06976794490814209</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1850,10 +1835,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.007756580233573914</v>
+        <v>0.007961863136291504</v>
       </c>
       <c r="J57">
-        <v>56.26</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1864,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.0723838415145874</v>
+        <v>0.06997471160888671</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1878,10 +1863,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.007789278721809388</v>
+        <v>0.00796807370185852</v>
       </c>
       <c r="J59">
-        <v>56.12</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1892,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.07250615959167481</v>
+        <v>0.07010748100280761</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1906,10 +1891,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.007803857660293579</v>
+        <v>0.00798722894191742</v>
       </c>
       <c r="J61">
-        <v>55.9</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1920,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07284028396606446</v>
+        <v>0.06978845882415771</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1934,10 +1919,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.007707433605194092</v>
+        <v>0.008017044949531555</v>
       </c>
       <c r="J63">
-        <v>56.14</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1948,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07218573741912841</v>
+        <v>0.07030394268035889</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1962,10 +1947,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.007693444204330445</v>
+        <v>0.007911338782310486</v>
       </c>
       <c r="J65">
-        <v>56.22</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1976,7 +1961,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07233501949310303</v>
+        <v>0.06995933322906495</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1990,10 +1975,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.007710767221450806</v>
+        <v>0.007912988829612732</v>
       </c>
       <c r="J67">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2004,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07225385417938232</v>
+        <v>0.06971446132659911</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2018,10 +2003,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007701240968704223</v>
+        <v>0.007915946555137634</v>
       </c>
       <c r="J69">
-        <v>56.16</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2032,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.07227997722625733</v>
+        <v>0.06992164573669434</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2046,10 +2031,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.007708480191230774</v>
+        <v>0.007917923903465272</v>
       </c>
       <c r="J71">
-        <v>56.22</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2060,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.07225021839141846</v>
+        <v>0.06994442481994628</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2074,10 +2059,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.007718107557296753</v>
+        <v>0.007923008155822754</v>
       </c>
       <c r="J73">
-        <v>55.98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2088,7 +2073,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.07230599441528321</v>
+        <v>0.07011932678222656</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2102,10 +2087,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.007709283185005188</v>
+        <v>0.007899337911605835</v>
       </c>
       <c r="J75">
-        <v>56.26</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2116,7 +2101,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.07230429363250733</v>
+        <v>0.06997016105651856</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2130,10 +2115,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.007703872799873352</v>
+        <v>0.007905575513839722</v>
       </c>
       <c r="J77">
-        <v>56.06</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2144,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.07254623126983642</v>
+        <v>0.06988964347839355</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2158,10 +2143,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.007709309411048889</v>
+        <v>0.007914494395256043</v>
       </c>
       <c r="J79">
-        <v>56</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2172,7 +2157,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.07232878799438476</v>
+        <v>0.06992023544311524</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2186,10 +2171,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.007697006869316101</v>
+        <v>0.007904560494422912</v>
       </c>
       <c r="J81">
-        <v>56.1</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2200,7 +2185,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.07217812900543213</v>
+        <v>0.06988667659759522</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2214,10 +2199,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.007712065243721008</v>
+        <v>0.007910408711433411</v>
       </c>
       <c r="J83">
-        <v>55.86</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -2228,37 +2213,9 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.07236652584075928</v>
+        <v>0.07007636871337891</v>
       </c>
       <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.00770626413822174</v>
-      </c>
-      <c r="J85">
-        <v>56.18</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.07234160556793214</v>
-      </c>
-      <c r="J86">
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2230,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2332,13 +2289,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.487163873222785</v>
+        <v>4.629054375454388</v>
       </c>
       <c r="D3">
-        <v>2.58983572324117</v>
+        <v>2.76791578072768</v>
       </c>
       <c r="E3">
-        <v>14.85</v>
+        <v>12.39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2347,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.03973500738143921</v>
+        <v>0.0392694169998169</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2361,13 +2318,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.218073055996158</v>
+        <v>2.307785540555431</v>
       </c>
       <c r="D4">
-        <v>2.103150447209676</v>
+        <v>2.17077453319843</v>
       </c>
       <c r="E4">
-        <v>20.07</v>
+        <v>18.9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2376,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01303772296905518</v>
+        <v>0.01375593681335449</v>
       </c>
       <c r="J4">
-        <v>29.7</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2390,13 +2347,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.829874475797017</v>
+        <v>1.909087660038366</v>
       </c>
       <c r="D5">
-        <v>2.212201197942098</v>
+        <v>2.13851130925692</v>
       </c>
       <c r="E5">
-        <v>20.06</v>
+        <v>19.24</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2405,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.04599026107788086</v>
+        <v>0.0443627893447876</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2419,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.607268469120429</v>
+        <v>1.667563513316939</v>
       </c>
       <c r="D6">
-        <v>1.91817835966746</v>
+        <v>1.924887143648588</v>
       </c>
       <c r="E6">
-        <v>22.97</v>
+        <v>21.26</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2434,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01047762513160706</v>
+        <v>0.01089427919387817</v>
       </c>
       <c r="J6">
-        <v>40.14</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2448,13 +2405,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.454406220738481</v>
+        <v>1.494072521682334</v>
       </c>
       <c r="D7">
-        <v>1.976345976193746</v>
+        <v>1.792146233411936</v>
       </c>
       <c r="E7">
-        <v>22.23</v>
+        <v>23.6</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2463,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.05081175422668457</v>
+        <v>0.04948723373413086</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2477,13 +2434,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.313297010049587</v>
+        <v>1.368423188682151</v>
       </c>
       <c r="D8">
-        <v>1.990094264348348</v>
+        <v>1.865602374076843</v>
       </c>
       <c r="E8">
-        <v>22.91</v>
+        <v>23.7</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2492,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01062681396007538</v>
+        <v>0.01063171091079712</v>
       </c>
       <c r="J8">
-        <v>40.12</v>
+        <v>38.48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2506,13 +2463,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.205983789471107</v>
+        <v>1.254351435509403</v>
       </c>
       <c r="D9">
-        <v>1.790823419888814</v>
+        <v>1.862828685687139</v>
       </c>
       <c r="E9">
-        <v>24.56</v>
+        <v>23.43</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2521,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.05554963932037354</v>
+        <v>0.05159222946166992</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2535,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.105766984989973</v>
+        <v>1.163449188249301</v>
       </c>
       <c r="D10">
-        <v>1.761245886484782</v>
+        <v>2.034027117949265</v>
       </c>
       <c r="E10">
-        <v>25.5</v>
+        <v>22.54</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2550,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.009233483266830444</v>
+        <v>0.009691671872138976</v>
       </c>
       <c r="J10">
-        <v>45.94</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2564,13 +2521,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.010201239004368</v>
+        <v>1.051009553723631</v>
       </c>
       <c r="D11">
-        <v>1.782207091649373</v>
+        <v>1.729734319906968</v>
       </c>
       <c r="E11">
-        <v>26.14</v>
+        <v>25.44</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2579,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.05050380306243896</v>
+        <v>0.05405660800933838</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2593,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9260632846413589</v>
+        <v>0.9617251959522214</v>
       </c>
       <c r="D12">
-        <v>1.797142267227173</v>
+        <v>1.70426043180319</v>
       </c>
       <c r="E12">
-        <v>26.14</v>
+        <v>25.56</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2608,10 +2565,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.009613399839401245</v>
+        <v>0.009196043586730956</v>
       </c>
       <c r="J12">
-        <v>44.46</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2622,13 +2579,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8494579651491428</v>
+        <v>0.8834665491517666</v>
       </c>
       <c r="D13">
-        <v>1.62998898824056</v>
+        <v>2.26917172395266</v>
       </c>
       <c r="E13">
-        <v>26.58</v>
+        <v>21.71</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2637,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.05852177028656006</v>
+        <v>0.05917240657806396</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2651,13 +2608,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7657505361045279</v>
+        <v>0.8081115246874041</v>
       </c>
       <c r="D14">
-        <v>1.807121793429057</v>
+        <v>1.869415961779081</v>
       </c>
       <c r="E14">
-        <v>24.83</v>
+        <v>25.06</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2666,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009639636445045471</v>
+        <v>0.009260534858703613</v>
       </c>
       <c r="J14">
-        <v>45.82</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2680,13 +2637,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6944927398751422</v>
+        <v>0.722212144758849</v>
       </c>
       <c r="D15">
-        <v>2.095538139343262</v>
+        <v>1.822049095080449</v>
       </c>
       <c r="E15">
-        <v>24.92</v>
+        <v>25.78</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2695,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.05902778549194336</v>
+        <v>0.05811381282806397</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2709,13 +2666,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6291868296580586</v>
+        <v>0.6612795992235166</v>
       </c>
       <c r="D16">
-        <v>1.80274494489034</v>
+        <v>1.973583936691284</v>
       </c>
       <c r="E16">
-        <v>25.98</v>
+        <v>24.92</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2724,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.009007338237762451</v>
+        <v>0.009372882962226868</v>
       </c>
       <c r="J16">
-        <v>49.12</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2738,13 +2695,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5666933755079905</v>
+        <v>0.6019661624347215</v>
       </c>
       <c r="D17">
-        <v>2.308290243148804</v>
+        <v>1.859009935305669</v>
       </c>
       <c r="E17">
-        <v>24.85</v>
+        <v>25.82</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2753,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.06063968181610108</v>
+        <v>0.05810359802246094</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2767,13 +2724,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.5208333551399107</v>
+        <v>0.7086551015355945</v>
       </c>
       <c r="D18">
-        <v>2.116732637087504</v>
+        <v>1.456053495407104</v>
       </c>
       <c r="E18">
-        <v>26.06</v>
+        <v>29.14</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2782,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.008595581603050233</v>
+        <v>0.01013222231864929</v>
       </c>
       <c r="J18">
-        <v>51</v>
+        <v>45.08</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2796,13 +2753,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.5981840752973789</v>
+        <v>0.6268275939257799</v>
       </c>
       <c r="D19">
-        <v>1.462299704551697</v>
+        <v>1.462212094893822</v>
       </c>
       <c r="E19">
-        <v>29.56</v>
+        <v>29.06</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2811,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.06214696273803711</v>
+        <v>0.06131116237640381</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2825,13 +2782,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.5234754919036617</v>
+        <v>0.5839766258687045</v>
       </c>
       <c r="D20">
-        <v>1.586193998654683</v>
+        <v>1.500619769096375</v>
       </c>
       <c r="E20">
-        <v>29.46</v>
+        <v>28.94</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2840,10 +2797,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.008551568961143494</v>
+        <v>0.008659075164794921</v>
       </c>
       <c r="J20">
-        <v>52.28</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2854,13 +2811,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4842595647021038</v>
+        <v>0.5516543422652557</v>
       </c>
       <c r="D21">
-        <v>1.608312169710795</v>
+        <v>1.502736669320327</v>
       </c>
       <c r="E21">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2869,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.06048733291625977</v>
+        <v>0.05995167579650879</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2883,13 +2840,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4533920971358695</v>
+        <v>0.5196160734754748</v>
       </c>
       <c r="D22">
-        <v>1.588741501172384</v>
+        <v>1.517650209940397</v>
       </c>
       <c r="E22">
-        <v>29.07</v>
+        <v>28.72</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2898,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.00855845685005188</v>
+        <v>0.008757924294471741</v>
       </c>
       <c r="J22">
-        <v>52.28</v>
+        <v>51.12</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2912,13 +2869,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4280277880711284</v>
+        <v>0.4885595198226186</v>
       </c>
       <c r="D23">
-        <v>1.589444677035014</v>
+        <v>1.543406110543471</v>
       </c>
       <c r="E23">
-        <v>29.12</v>
+        <v>28.25</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2927,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.05905546188354492</v>
+        <v>0.05999182624816895</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2941,13 +2898,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.400067656747694</v>
+        <v>0.6082544664366055</v>
       </c>
       <c r="D24">
-        <v>1.641255696614583</v>
+        <v>1.422407342837407</v>
       </c>
       <c r="E24">
-        <v>28.73</v>
+        <v>29.22</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2956,10 +2913,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.008411433386802673</v>
+        <v>0.01136770827770233</v>
       </c>
       <c r="J24">
-        <v>53.16</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2970,13 +2927,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.5070471942909365</v>
+        <v>0.594869456723728</v>
       </c>
       <c r="D25">
-        <v>1.521776080131531</v>
+        <v>1.426208349374624</v>
       </c>
       <c r="E25">
-        <v>29.65</v>
+        <v>29.12</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2985,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.06719801769256592</v>
+        <v>0.06051994285583496</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2999,13 +2956,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4946526167838554</v>
+        <v>0.5834558909445737</v>
       </c>
       <c r="D26">
-        <v>1.548535943031311</v>
+        <v>1.434060454368591</v>
       </c>
       <c r="E26">
-        <v>29.64</v>
+        <v>29.17</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3014,10 +2971,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.009842084908485413</v>
+        <v>0.00925014419555664</v>
       </c>
       <c r="J26">
-        <v>49.66</v>
+        <v>50.12</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3028,13 +2985,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4821383189864275</v>
+        <v>0.5729683938279616</v>
       </c>
       <c r="D27">
-        <v>1.548464973767598</v>
+        <v>1.439163116308359</v>
       </c>
       <c r="E27">
-        <v>29.77</v>
+        <v>29.19</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3043,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.06617967376708984</v>
+        <v>0.06013554420471191</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3057,13 +3014,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4728969483356166</v>
+        <v>0.5653860724605291</v>
       </c>
       <c r="D28">
-        <v>1.531534711519877</v>
+        <v>1.458549371132484</v>
       </c>
       <c r="E28">
-        <v>29.61</v>
+        <v>29.15</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3072,10 +3029,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.009881045627593994</v>
+        <v>0.009026044011116029</v>
       </c>
       <c r="J28">
-        <v>49.84</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3086,13 +3043,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4642339981183773</v>
+        <v>0.5533860368011272</v>
       </c>
       <c r="D29">
-        <v>1.567233800888062</v>
+        <v>1.446514065449054</v>
       </c>
       <c r="E29">
-        <v>29.66</v>
+        <v>28.99</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3101,7 +3058,7 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.06824472312927246</v>
+        <v>0.06423322410583496</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3115,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.5096071960964823</v>
+        <v>0.5897131538496608</v>
       </c>
       <c r="D30">
-        <v>1.484467585881551</v>
+        <v>1.431717643370995</v>
       </c>
       <c r="E30">
-        <v>29.61</v>
+        <v>29.33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3130,10 +3087,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.009488029003143311</v>
+        <v>0.0100026914358139</v>
       </c>
       <c r="J30">
-        <v>51.96</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3144,13 +3101,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.5008441226753763</v>
+        <v>0.5901056870950007</v>
       </c>
       <c r="D31">
-        <v>1.507370313008626</v>
+        <v>1.433367289029635</v>
       </c>
       <c r="E31">
-        <v>29.74</v>
+        <v>29.31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3159,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.07021547374725341</v>
+        <v>0.06333074150085449</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3173,13 +3130,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4984128501841693</v>
+        <v>0.5859656500077881</v>
       </c>
       <c r="D32">
-        <v>1.521798610687256</v>
+        <v>1.423987278571496</v>
       </c>
       <c r="E32">
-        <v>29.75</v>
+        <v>29.19</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3188,10 +3145,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01036293630599976</v>
+        <v>0.009433573913574219</v>
       </c>
       <c r="J32">
-        <v>49.7</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3202,13 +3159,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.495621655772372</v>
+        <v>0.5842220057955886</v>
       </c>
       <c r="D33">
-        <v>1.445530613263448</v>
+        <v>1.438191349689777</v>
       </c>
       <c r="E33">
-        <v>29.66</v>
+        <v>29.32</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3217,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0660830192565918</v>
+        <v>0.05922248573303222</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3231,13 +3188,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.4926649746371479</v>
+        <v>0.5807911682445391</v>
       </c>
       <c r="D34">
-        <v>1.548570076624552</v>
+        <v>1.422340099628155</v>
       </c>
       <c r="E34">
-        <v>29.66</v>
+        <v>29.24</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3246,10 +3203,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.009451928687095643</v>
+        <v>0.007332517528533936</v>
       </c>
       <c r="J34">
-        <v>52.12</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3260,13 +3217,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4882420999247853</v>
+        <v>0.5792162932653343</v>
       </c>
       <c r="D35">
-        <v>1.522190848986308</v>
+        <v>1.437822461128235</v>
       </c>
       <c r="E35">
-        <v>29.79</v>
+        <v>29.25</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3275,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.06142430438995361</v>
+        <v>0.05965588569641114</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3289,13 +3246,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.4852540648080469</v>
+        <v>0.5755987193732135</v>
       </c>
       <c r="D36">
-        <v>1.533118486404419</v>
+        <v>1.433756608229417</v>
       </c>
       <c r="E36">
-        <v>29.75</v>
+        <v>29.32</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3304,10 +3261,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.007186101269721985</v>
+        <v>0.007323674178123474</v>
       </c>
       <c r="J36">
-        <v>59.12</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3318,13 +3275,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.4838571579960304</v>
+        <v>0.5763141987598048</v>
       </c>
       <c r="D37">
-        <v>1.503528356552124</v>
+        <v>1.430236257039584</v>
       </c>
       <c r="E37">
-        <v>29.7</v>
+        <v>29.25</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3333,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.06117998313903809</v>
+        <v>0.06045290126800537</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3347,13 +3304,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.4819506246869157</v>
+        <v>0.57420595135309</v>
       </c>
       <c r="D38">
-        <v>1.53340748945872</v>
+        <v>1.437205874002897</v>
       </c>
       <c r="E38">
-        <v>29.65</v>
+        <v>29.15</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3362,10 +3319,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.007354574775695801</v>
+        <v>0.007537726759910584</v>
       </c>
       <c r="J38">
-        <v>58.92</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3376,13 +3333,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.4920045658340299</v>
+        <v>0.5716356788061362</v>
       </c>
       <c r="D39">
-        <v>1.475116809209188</v>
+        <v>1.436529067846445</v>
       </c>
       <c r="E39">
-        <v>29.79</v>
+        <v>29.27</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3391,7 +3348,7 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.06206511669158936</v>
+        <v>0.06001870994567871</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3405,13 +3362,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.4908078637549548</v>
+        <v>0.5803593650328375</v>
       </c>
       <c r="D40">
-        <v>1.477095643679301</v>
+        <v>1.432190913420457</v>
       </c>
       <c r="E40">
-        <v>29.73</v>
+        <v>29.32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3420,10 +3377,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.007443079948425293</v>
+        <v>0.007562714695930481</v>
       </c>
       <c r="J40">
-        <v>58.4</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3434,13 +3391,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.4893248606988085</v>
+        <v>0.5796197088418809</v>
       </c>
       <c r="D41">
-        <v>1.513145049413045</v>
+        <v>1.431937832098741</v>
       </c>
       <c r="E41">
-        <v>29.71</v>
+        <v>29.29</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3449,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0640318489074707</v>
+        <v>0.06035004329681397</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3463,13 +3420,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.488799360951757</v>
+        <v>0.5746078454287706</v>
       </c>
       <c r="D42">
-        <v>1.528895457585653</v>
+        <v>1.436557687245883</v>
       </c>
       <c r="E42">
-        <v>29.68</v>
+        <v>29.18</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3478,10 +3435,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.007647570395469666</v>
+        <v>0.007695260143280029</v>
       </c>
       <c r="J42">
-        <v>58.14</v>
+        <v>57.44</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3492,13 +3449,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.4885823913221437</v>
+        <v>0.575863794415398</v>
       </c>
       <c r="D43">
-        <v>1.517878770828247</v>
+        <v>1.436688056358924</v>
       </c>
       <c r="E43">
-        <v>29.77</v>
+        <v>29.27</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3507,13 +3464,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.06326026153564453</v>
+        <v>0.06126097240447998</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.5740778330153069</v>
+      </c>
+      <c r="D44">
+        <v>1.439423304337722</v>
+      </c>
+      <c r="E44">
+        <v>29.32</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3521,10 +3493,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.007722794938087463</v>
+        <v>0.007823488903045654</v>
       </c>
       <c r="J44">
-        <v>58.24</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3535,7 +3507,7 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.06354096221923829</v>
+        <v>0.05923842315673828</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3549,10 +3521,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.007806722569465637</v>
+        <v>0.007188312768936157</v>
       </c>
       <c r="J46">
-        <v>57.46</v>
+        <v>58.44</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3563,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.06176504383087159</v>
+        <v>0.05936721935272217</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3577,10 +3549,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.007135773634910583</v>
+        <v>0.007222907066345215</v>
       </c>
       <c r="J48">
-        <v>59.3</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3591,7 +3563,7 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.06207653656005859</v>
+        <v>0.05945672016143799</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3605,10 +3577,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.007184827184677124</v>
+        <v>0.007236199283599853</v>
       </c>
       <c r="J50">
-        <v>59.28</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3619,7 +3591,7 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.06218197193145752</v>
+        <v>0.05929793663024902</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3633,10 +3605,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.007206376600265503</v>
+        <v>0.007269633889198303</v>
       </c>
       <c r="J52">
-        <v>59.54</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3647,7 +3619,7 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.06232064552307129</v>
+        <v>0.05963766593933106</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3661,10 +3633,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.007238385200500489</v>
+        <v>0.007291876745223999</v>
       </c>
       <c r="J54">
-        <v>59.22</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3675,7 +3647,7 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.06209158210754395</v>
+        <v>0.059625417137146</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3689,10 +3661,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.007240742230415344</v>
+        <v>0.007324784636497498</v>
       </c>
       <c r="J56">
-        <v>59.32</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3703,7 +3675,7 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.06184725723266601</v>
+        <v>0.05947232589721679</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3717,10 +3689,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.007139795470237732</v>
+        <v>0.007195604181289673</v>
       </c>
       <c r="J58">
-        <v>59.22</v>
+        <v>58.66</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3731,7 +3703,7 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.06199059982299805</v>
+        <v>0.05937715167999268</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3745,10 +3717,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.007157592487335205</v>
+        <v>0.007202915000915527</v>
       </c>
       <c r="J60">
-        <v>59.48</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3759,7 +3731,7 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.06194640979766846</v>
+        <v>0.0593147045135498</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3773,10 +3745,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.007138072800636291</v>
+        <v>0.007201500678062439</v>
       </c>
       <c r="J62">
-        <v>59.5</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3787,7 +3759,7 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.06196711578369141</v>
+        <v>0.05950365352630616</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3801,10 +3773,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.007156627774238586</v>
+        <v>0.007221458792686463</v>
       </c>
       <c r="J64">
-        <v>59.32</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3815,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.06215737953186035</v>
+        <v>0.05944119091033936</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3829,10 +3801,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.007163660740852356</v>
+        <v>0.007212242388725281</v>
       </c>
       <c r="J66">
-        <v>59.32</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3843,7 +3815,7 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.06209295482635498</v>
+        <v>0.05937769298553467</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3857,10 +3829,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.007166664361953736</v>
+        <v>0.007218669819831848</v>
       </c>
       <c r="J68">
-        <v>59.58</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3871,7 +3843,7 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.06204799594879151</v>
+        <v>0.05937484760284424</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3885,10 +3857,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.007166325330734253</v>
+        <v>0.007220831990242004</v>
       </c>
       <c r="J70">
-        <v>59.5</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3899,7 +3871,7 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.06217148075103759</v>
+        <v>0.05930350456237793</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3913,10 +3885,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.007184975385665894</v>
+        <v>0.007229582738876343</v>
       </c>
       <c r="J72">
-        <v>59.4</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3927,7 +3899,7 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.06197006072998047</v>
+        <v>0.05934024105072021</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3941,10 +3913,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.007165698194503784</v>
+        <v>0.007225878047943115</v>
       </c>
       <c r="J74">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3955,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.06192010936737061</v>
+        <v>0.0594267032623291</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3969,10 +3941,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.007158341002464295</v>
+        <v>0.00723554813861847</v>
       </c>
       <c r="J76">
-        <v>59.58</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3983,7 +3955,7 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.06221526069641113</v>
+        <v>0.0593366283416748</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3997,10 +3969,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.007159108924865723</v>
+        <v>0.007205224204063415</v>
       </c>
       <c r="J78">
-        <v>59.46</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -4011,7 +3983,7 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.06208035335540771</v>
+        <v>0.05940229606628418</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4025,10 +3997,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.007148539185523987</v>
+        <v>0.00722015552520752</v>
       </c>
       <c r="J80">
-        <v>59.42</v>
+        <v>58.58</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4039,7 +4011,7 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.06222286281585693</v>
+        <v>0.05949713134765625</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4053,10 +4025,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.007159619188308716</v>
+        <v>0.007219396996498108</v>
       </c>
       <c r="J82">
-        <v>59.36</v>
+        <v>58.36</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4067,7 +4039,7 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.06210186614990235</v>
+        <v>0.0594186466217041</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4081,10 +4053,38 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.007155157899856567</v>
+        <v>0.007215795636177063</v>
       </c>
       <c r="J84">
-        <v>59.54</v>
+        <v>58.54</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.05964499168395996</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.007226699757575989</v>
+      </c>
+      <c r="J86">
+        <v>58.64</v>
       </c>
     </row>
   </sheetData>
